--- a/data/trans_orig/P14B11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2854C9E2-E833-4DE3-9FDE-988643ED7EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AD64B95-B5C1-48D2-86AD-6B6A1D2960DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3447E1CF-85FA-40AF-BA74-404D14390667}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3066319E-3DA6-45FD-8D58-ADE0E969CF3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="152">
   <si>
     <t>Población cuyo infarto de miocardio le limita en 2012 (Tasa respuesta: 1,49%)</t>
   </si>
@@ -123,7 +123,7 @@
     <t>70,17%</t>
   </si>
   <si>
-    <t>27,32%</t>
+    <t>26,81%</t>
   </si>
   <si>
     <t>23,8%</t>
@@ -138,7 +138,7 @@
     <t>29,83%</t>
   </si>
   <si>
-    <t>72,68%</t>
+    <t>73,19%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -198,16 +198,16 @@
     <t>70,57%</t>
   </si>
   <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>60,07%</t>
+    <t>60,56%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -216,19 +216,19 @@
     <t>73,98%</t>
   </si>
   <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
   </si>
   <si>
     <t>19,69%</t>
@@ -237,70 +237,70 @@
     <t>7,61%</t>
   </si>
   <si>
-    <t>39,93%</t>
+    <t>39,44%</t>
   </si>
   <si>
     <t>26,02%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
   </si>
   <si>
     <t>69,77%</t>
   </si>
   <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>73,51%</t>
   </si>
   <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>30,23%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -360,10 +360,10 @@
     <t>65,42%</t>
   </si>
   <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
   </si>
   <si>
     <t>32,18%</t>
@@ -381,112 +381,118 @@
     <t>34,58%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
   </si>
   <si>
     <t>68,45%</t>
   </si>
   <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>31,55%</t>
   </si>
   <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
   </si>
   <si>
     <t>68,86%</t>
   </si>
   <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>75,29%</t>
   </si>
   <si>
-    <t>66,52%</t>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
   </si>
   <si>
     <t>24,71%</t>
   </si>
   <si>
-    <t>33,48%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
   </si>
 </sst>
 </file>
@@ -898,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBBF801-5CDC-4150-AB79-A33F1ADFC760}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA74927-4993-40BD-9374-DCB3C9534624}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2081,7 +2087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEEF27F-BDA4-41B4-A9F3-F3CDC039E1BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E523494C-5B66-4F25-91A7-03815C752A3F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3147,7 +3153,7 @@
         <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3168,13 @@
         <v>20792</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3177,13 +3183,13 @@
         <v>6722</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -3192,13 +3198,13 @@
         <v>27514</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B11-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AD64B95-B5C1-48D2-86AD-6B6A1D2960DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B5FB681-096E-46B5-A84F-ED2698B08A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3066319E-3DA6-45FD-8D58-ADE0E969CF3B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE9AC170-B423-4D96-936D-CF12A9CF6DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -114,31 +114,25 @@
     <t>76,2%</t>
   </si>
   <si>
-    <t>24,39%</t>
-  </si>
-  <si>
     <t>62,65%</t>
   </si>
   <si>
     <t>70,17%</t>
   </si>
   <si>
-    <t>26,81%</t>
+    <t>25,97%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>75,61%</t>
-  </si>
-  <si>
     <t>37,35%</t>
   </si>
   <si>
     <t>29,83%</t>
   </si>
   <si>
-    <t>73,19%</t>
+    <t>74,03%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -147,49 +141,49 @@
     <t>70,23%</t>
   </si>
   <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
   </si>
   <si>
     <t>64,64%</t>
   </si>
   <si>
-    <t>15,56%</t>
+    <t>29,35%</t>
   </si>
   <si>
     <t>68,73%</t>
   </si>
   <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
   <si>
     <t>35,36%</t>
   </si>
   <si>
-    <t>84,44%</t>
+    <t>70,65%</t>
   </si>
   <si>
     <t>31,27%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -198,124 +192,124 @@
     <t>70,57%</t>
   </si>
   <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>73,98%</t>
   </si>
   <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
   </si>
   <si>
     <t>26,02%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>69,77%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
   </si>
   <si>
     <t>73,51%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>30,23%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo infarto de miocardio le limita en 2015 (Tasa respuesta: 1,61%)</t>
+    <t>Población cuyo infarto de miocardio le limita en 2016 (Tasa respuesta: 1,61%)</t>
   </si>
   <si>
     <t>65,8%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>74,79%</t>
@@ -324,16 +318,19 @@
     <t>68,53%</t>
   </si>
   <si>
-    <t>42,1%</t>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
   </si>
   <si>
     <t>34,2%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
   </si>
   <si>
     <t>25,21%</t>
@@ -342,16 +339,19 @@
     <t>31,47%</t>
   </si>
   <si>
-    <t>57,9%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
   </si>
   <si>
     <t>67,82%</t>
   </si>
   <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>48,68%</t>
@@ -360,19 +360,19 @@
     <t>65,42%</t>
   </si>
   <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
   </si>
   <si>
     <t>51,32%</t>
@@ -381,118 +381,118 @@
     <t>34,58%</t>
   </si>
   <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
   </si>
   <si>
     <t>68,45%</t>
   </si>
   <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>31,55%</t>
   </si>
   <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
   </si>
   <si>
     <t>68,86%</t>
   </si>
   <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>75,29%</t>
   </si>
   <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
   </si>
   <si>
     <t>24,71%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA74927-4993-40BD-9374-DCB3C9534624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C288EA6-A2E5-4824-AC8D-0751CE2BB9C8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1460,7 +1460,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>19</v>
@@ -1472,7 +1472,7 @@
         <v>2145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
@@ -1487,10 +1487,10 @@
         <v>5395</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>19</v>
@@ -1508,13 +1508,13 @@
         <v>1015</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1523,7 +1523,7 @@
         <v>1278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
@@ -1538,13 +1538,13 @@
         <v>2294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,7 +1600,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1612,13 +1612,13 @@
         <v>12377</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1627,10 +1627,10 @@
         <v>4146</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -1642,13 +1642,13 @@
         <v>16523</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,13 +1663,13 @@
         <v>5248</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1678,13 +1678,13 @@
         <v>2268</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1693,13 +1693,13 @@
         <v>7516</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,7 +1755,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1767,13 +1767,13 @@
         <v>32923</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -1782,13 +1782,13 @@
         <v>20172</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -1797,13 +1797,13 @@
         <v>53095</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,13 +1818,13 @@
         <v>13731</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -1833,13 +1833,13 @@
         <v>4947</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -1848,13 +1848,13 @@
         <v>18678</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1922,13 @@
         <v>48550</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -1937,13 +1937,13 @@
         <v>26463</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -1952,13 +1952,13 @@
         <v>75013</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1973,13 @@
         <v>21036</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -1988,13 +1988,13 @@
         <v>9538</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M23" s="7">
         <v>28</v>
@@ -2003,13 +2003,13 @@
         <v>30574</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,7 +2065,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E523494C-5B66-4F25-91A7-03815C752A3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E328DE3C-5210-41F7-914C-BA4BB38585F6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2104,7 +2104,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2652,13 +2652,13 @@
         <v>5980</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2667,7 +2667,7 @@
         <v>2972</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
@@ -2682,13 +2682,13 @@
         <v>8952</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2703,13 @@
         <v>3108</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2718,7 +2718,7 @@
         <v>1002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
@@ -2733,10 +2733,10 @@
         <v>4110</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>101</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
